--- a/Code/Results/Cases/Case_8_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.284048943891463</v>
+        <v>1.147151197626698</v>
       </c>
       <c r="C2">
-        <v>0.4164526413381395</v>
+        <v>0.4803558832529689</v>
       </c>
       <c r="D2">
-        <v>0.04778254714484209</v>
+        <v>0.04156586984885458</v>
       </c>
       <c r="E2">
-        <v>1.261875354179082</v>
+        <v>1.276694075876719</v>
       </c>
       <c r="F2">
-        <v>1.433160592464262</v>
+        <v>1.19793933381915</v>
       </c>
       <c r="G2">
-        <v>0.0008182578575400501</v>
+        <v>0.009843462126553182</v>
       </c>
       <c r="H2">
-        <v>0.002238027560735434</v>
+        <v>0.00344692295714899</v>
       </c>
       <c r="I2">
-        <v>0.001375406207109631</v>
+        <v>0.0005644251733398775</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8239376831173288</v>
+        <v>0.6403440262648203</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2935696894288213</v>
       </c>
       <c r="M2">
-        <v>1.679280890406005</v>
+        <v>0.1945985639469612</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.622475195872681</v>
       </c>
       <c r="P2">
-        <v>1.307280951678955</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.076358325526577</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.116263655587119</v>
+        <v>1.002436431427071</v>
       </c>
       <c r="C3">
-        <v>0.3606030738585559</v>
+        <v>0.4145889307677351</v>
       </c>
       <c r="D3">
-        <v>0.04710368599875991</v>
+        <v>0.03974357006538298</v>
       </c>
       <c r="E3">
-        <v>1.093376221762483</v>
+        <v>1.108748996272524</v>
       </c>
       <c r="F3">
-        <v>1.316857567999577</v>
+        <v>1.102819162656104</v>
       </c>
       <c r="G3">
-        <v>0.0008227326995707034</v>
+        <v>0.01398138605640942</v>
       </c>
       <c r="H3">
-        <v>0.0008540360725830531</v>
+        <v>0.00180323154482287</v>
       </c>
       <c r="I3">
-        <v>0.002764829460371043</v>
+        <v>0.0008636691231886928</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7766559074873314</v>
+        <v>0.6084120772793682</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2896014257392352</v>
       </c>
       <c r="M3">
-        <v>1.458672654936436</v>
+        <v>0.1756844416707644</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.412610836797455</v>
       </c>
       <c r="P3">
-        <v>1.31232455866553</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.090932607471082</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.01315107959806</v>
+        <v>0.9130534626805513</v>
       </c>
       <c r="C4">
-        <v>0.3268345984729706</v>
+        <v>0.3746855424966213</v>
       </c>
       <c r="D4">
-        <v>0.04664301430531825</v>
+        <v>0.03859628823978412</v>
       </c>
       <c r="E4">
-        <v>0.9905120962391294</v>
+        <v>1.005969873883672</v>
       </c>
       <c r="F4">
-        <v>1.246069714653487</v>
+        <v>1.044440769880623</v>
       </c>
       <c r="G4">
-        <v>0.0008255662523128947</v>
+        <v>0.01697410167806512</v>
       </c>
       <c r="H4">
-        <v>0.0003153277667844456</v>
+        <v>0.001033400711894839</v>
       </c>
       <c r="I4">
-        <v>0.004002467667628906</v>
+        <v>0.001279035420497898</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7477292839612133</v>
+        <v>0.5886037468785617</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2868694972758448</v>
       </c>
       <c r="M4">
-        <v>1.323678627622286</v>
+        <v>0.1647389477237056</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.283700187657871</v>
       </c>
       <c r="P4">
-        <v>1.315561033599913</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.099826583917263</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9700151505478516</v>
+        <v>0.8755263361724417</v>
       </c>
       <c r="C5">
-        <v>0.3136008660846414</v>
+        <v>0.3589464243125065</v>
       </c>
       <c r="D5">
-        <v>0.04644301534238249</v>
+        <v>0.03813618836784549</v>
       </c>
       <c r="E5">
-        <v>0.948702121491948</v>
+        <v>0.9641376042326186</v>
       </c>
       <c r="F5">
-        <v>1.215931802586411</v>
+        <v>1.019396979754575</v>
       </c>
       <c r="G5">
-        <v>0.0008267516027279376</v>
+        <v>0.0183115815413486</v>
       </c>
       <c r="H5">
-        <v>0.0001683425491365576</v>
+        <v>0.0007751138285216896</v>
       </c>
       <c r="I5">
-        <v>0.004677662481408884</v>
+        <v>0.001588827875243837</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7348787138785084</v>
+        <v>0.5795787248442679</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2852887360507879</v>
       </c>
       <c r="M5">
-        <v>1.268228106831714</v>
+        <v>0.1601611123094528</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.230651466228949</v>
       </c>
       <c r="P5">
-        <v>1.315707528762417</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.102517891305418</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9615288674909834</v>
+        <v>0.8681070286528723</v>
       </c>
       <c r="C6">
-        <v>0.3119122173596338</v>
+        <v>0.3568454394677758</v>
       </c>
       <c r="D6">
-        <v>0.04640777236746096</v>
+        <v>0.03807756294371423</v>
       </c>
       <c r="E6">
-        <v>0.9417471626160676</v>
+        <v>0.9571767477084734</v>
       </c>
       <c r="F6">
-        <v>1.209191204983611</v>
+        <v>1.013712219286703</v>
       </c>
       <c r="G6">
-        <v>0.0008269602485600518</v>
+        <v>0.0185522292377982</v>
       </c>
       <c r="H6">
-        <v>0.0001477275415511237</v>
+        <v>0.0007346465932234203</v>
       </c>
       <c r="I6">
-        <v>0.004899879577592969</v>
+        <v>0.001756886687894088</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7314245962751329</v>
+        <v>0.5769792309549118</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2845427336992259</v>
       </c>
       <c r="M6">
-        <v>1.258379268333442</v>
+        <v>0.1590647185068086</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.221244597632648</v>
       </c>
       <c r="P6">
-        <v>1.314267301661665</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.101847337644998</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.008946405840305</v>
+        <v>0.9065277860511571</v>
       </c>
       <c r="C7">
-        <v>0.3280299225229726</v>
+        <v>0.3724982487299826</v>
       </c>
       <c r="D7">
-        <v>0.04663714974785371</v>
+        <v>0.0387526038807362</v>
       </c>
       <c r="E7">
-        <v>0.9898930810890505</v>
+        <v>1.005242873298457</v>
       </c>
       <c r="F7">
-        <v>1.240893070498146</v>
+        <v>1.031793804392706</v>
       </c>
       <c r="G7">
-        <v>0.0008256103739687422</v>
+        <v>0.01743772040428282</v>
       </c>
       <c r="H7">
-        <v>0.0003110992729888906</v>
+        <v>0.001020706381583025</v>
       </c>
       <c r="I7">
-        <v>0.004279041901734004</v>
+        <v>0.001584351949055929</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7439426809215206</v>
+        <v>0.5811819633367605</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2837139258568726</v>
       </c>
       <c r="M7">
-        <v>1.321157978553799</v>
+        <v>0.1623221575448781</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.27504501961667</v>
       </c>
       <c r="P7">
-        <v>1.311568666109771</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.091959903462019</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221349907943534</v>
+        <v>1.083682390074046</v>
       </c>
       <c r="C8">
-        <v>0.3989116534353627</v>
+        <v>0.4481152819012379</v>
       </c>
       <c r="D8">
-        <v>0.04755686069093912</v>
+        <v>0.04144399189128301</v>
       </c>
       <c r="E8">
-        <v>1.203554152521463</v>
+        <v>1.218224914383981</v>
       </c>
       <c r="F8">
-        <v>1.386578715202262</v>
+        <v>1.132665979792066</v>
       </c>
       <c r="G8">
-        <v>0.0008198189358004286</v>
+        <v>0.01319070099551301</v>
       </c>
       <c r="H8">
-        <v>0.001687231724266436</v>
+        <v>0.002789573391892342</v>
       </c>
       <c r="I8">
-        <v>0.002083161420419088</v>
+        <v>0.0009762341312935519</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8028132886831898</v>
+        <v>0.6112910081028815</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2849004396922155</v>
       </c>
       <c r="M8">
-        <v>1.600719760307214</v>
+        <v>0.1816969822787335</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.526745309435142</v>
       </c>
       <c r="P8">
-        <v>1.303757539655521</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.06196507588384</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.644438684794324</v>
+        <v>1.443114649449825</v>
       </c>
       <c r="C9">
-        <v>0.5402613072016322</v>
+        <v>0.610311401357734</v>
       </c>
       <c r="D9">
-        <v>0.04900615915962092</v>
+        <v>0.04595692494067549</v>
       </c>
       <c r="E9">
-        <v>1.628637273358493</v>
+        <v>1.639997526299211</v>
       </c>
       <c r="F9">
-        <v>1.686864184544092</v>
+        <v>1.368055878761155</v>
       </c>
       <c r="G9">
-        <v>0.0008090750563151915</v>
+        <v>0.005693876130854925</v>
       </c>
       <c r="H9">
-        <v>0.007115306310246039</v>
+        <v>0.008374311259401135</v>
       </c>
       <c r="I9">
-        <v>0.0007058587072483746</v>
+        <v>0.001288041545032925</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9259734634731771</v>
+        <v>0.6897091316612034</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2937272841765051</v>
       </c>
       <c r="M9">
-        <v>2.157177199594912</v>
+        <v>0.2319324559634026</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.046417250602332</v>
       </c>
       <c r="P9">
-        <v>1.29689921090953</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.025488269230777</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.943176005897072</v>
+        <v>1.678512552752011</v>
       </c>
       <c r="C10">
-        <v>0.640306276186152</v>
+        <v>0.7032171302121242</v>
       </c>
       <c r="D10">
-        <v>0.05003319044802623</v>
+        <v>0.05078806597885688</v>
       </c>
       <c r="E10">
-        <v>1.84695516052065</v>
+        <v>1.853080989489513</v>
       </c>
       <c r="F10">
-        <v>1.883029720082646</v>
+        <v>1.471611589764834</v>
       </c>
       <c r="G10">
-        <v>0.0008018180290543242</v>
+        <v>0.01044704534213281</v>
       </c>
       <c r="H10">
-        <v>0.01266158342052925</v>
+        <v>0.01344886822637248</v>
       </c>
       <c r="I10">
-        <v>0.002156913234401259</v>
+        <v>0.002931885514144916</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.000437321149363</v>
+        <v>0.710057939608113</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2857337449525303</v>
       </c>
       <c r="M10">
-        <v>2.549844970534281</v>
+        <v>0.257784751368888</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.372027885739584</v>
       </c>
       <c r="P10">
-        <v>1.273656381776547</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.962504572660194</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.974829409017673</v>
+        <v>1.680074936364718</v>
       </c>
       <c r="C11">
-        <v>0.6164269627062424</v>
+        <v>0.6321062707480678</v>
       </c>
       <c r="D11">
-        <v>0.0535816735712018</v>
+        <v>0.06311848644030249</v>
       </c>
       <c r="E11">
-        <v>1.180013012020069</v>
+        <v>1.182823568776897</v>
       </c>
       <c r="F11">
-        <v>1.733165400161027</v>
+        <v>1.257157128596106</v>
       </c>
       <c r="G11">
-        <v>0.0008006669100969178</v>
+        <v>0.04447609617696457</v>
       </c>
       <c r="H11">
-        <v>0.02914162470032622</v>
+        <v>0.02956775912542042</v>
       </c>
       <c r="I11">
-        <v>0.003026341253110409</v>
+        <v>0.003706668162032578</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8978922610761515</v>
+        <v>0.5873549618217169</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.235963950166969</v>
       </c>
       <c r="M11">
-        <v>2.55040322092276</v>
+        <v>0.2165388261401304</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.295166316552212</v>
       </c>
       <c r="P11">
-        <v>1.117272917778166</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8239266079258947</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.943878464905168</v>
+        <v>1.647390914950819</v>
       </c>
       <c r="C12">
-        <v>0.574161124881357</v>
+        <v>0.5665355695561232</v>
       </c>
       <c r="D12">
-        <v>0.05818875086971076</v>
+        <v>0.07423901619876005</v>
       </c>
       <c r="E12">
-        <v>0.701138888205179</v>
+        <v>0.703076356785445</v>
       </c>
       <c r="F12">
-        <v>1.577878829941966</v>
+        <v>1.099016648640969</v>
       </c>
       <c r="G12">
-        <v>0.0008009543148485679</v>
+        <v>0.06917042767447867</v>
       </c>
       <c r="H12">
-        <v>0.06590604257817034</v>
+        <v>0.06625830373309327</v>
       </c>
       <c r="I12">
-        <v>0.002937309634604368</v>
+        <v>0.003579619037221704</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.805877911843254</v>
+        <v>0.5057842384173483</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2056446029855721</v>
       </c>
       <c r="M12">
-        <v>2.470841498565704</v>
+        <v>0.1859459830338253</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.189682956646919</v>
       </c>
       <c r="P12">
-        <v>1.010717812020673</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7593363393758459</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.857548637382791</v>
+        <v>1.588506663962022</v>
       </c>
       <c r="C13">
-        <v>0.5179018546646432</v>
+        <v>0.5092268684579722</v>
       </c>
       <c r="D13">
-        <v>0.06373585330608122</v>
+        <v>0.08241386373209991</v>
       </c>
       <c r="E13">
-        <v>0.3402050402870955</v>
+        <v>0.3421712513374757</v>
       </c>
       <c r="F13">
-        <v>1.402519180588953</v>
+        <v>0.9788865080973466</v>
       </c>
       <c r="G13">
-        <v>0.0008023962054204414</v>
+        <v>0.0637362995708699</v>
       </c>
       <c r="H13">
-        <v>0.1197431835447702</v>
+        <v>0.1201934415223889</v>
       </c>
       <c r="I13">
-        <v>0.002470780095285008</v>
+        <v>0.003197587505622046</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7111984313107413</v>
+        <v>0.4498696095902375</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1868109397689253</v>
       </c>
       <c r="M13">
-        <v>2.323050874157076</v>
+        <v>0.1624063069998058</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.067920921552655</v>
       </c>
       <c r="P13">
-        <v>0.9294363449569971</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7341004019497817</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.771640170900184</v>
+        <v>1.534148389639171</v>
       </c>
       <c r="C14">
-        <v>0.473247786462025</v>
+        <v>0.4722237135063097</v>
       </c>
       <c r="D14">
-        <v>0.06823403647261017</v>
+        <v>0.08642889674045051</v>
       </c>
       <c r="E14">
-        <v>0.1594458521166757</v>
+        <v>0.1614134801402258</v>
       </c>
       <c r="F14">
-        <v>1.271360340639433</v>
+        <v>0.9079214828178124</v>
       </c>
       <c r="G14">
-        <v>0.0008039070347082648</v>
+        <v>0.04744187478355855</v>
       </c>
       <c r="H14">
-        <v>0.1678523733103958</v>
+        <v>0.168413229890902</v>
       </c>
       <c r="I14">
-        <v>0.002125186576104277</v>
+        <v>0.002932932150988776</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6440004379646851</v>
+        <v>0.419673278167167</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.177591044902158</v>
       </c>
       <c r="M14">
-        <v>2.189512795938981</v>
+        <v>0.1483689721595809</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.973754478542986</v>
       </c>
       <c r="P14">
-        <v>0.8851430898956849</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7292919448313886</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.737746993562297</v>
+        <v>1.5134710345732</v>
       </c>
       <c r="C15">
-        <v>0.4598085664122209</v>
+        <v>0.464047393222927</v>
       </c>
       <c r="D15">
-        <v>0.06934170063114919</v>
+        <v>0.08646609170244091</v>
       </c>
       <c r="E15">
-        <v>0.1243446409533249</v>
+        <v>0.1263578548570443</v>
       </c>
       <c r="F15">
-        <v>1.233261540840147</v>
+        <v>0.8940478365050382</v>
       </c>
       <c r="G15">
-        <v>0.0008045585519774552</v>
+        <v>0.03915299772955194</v>
       </c>
       <c r="H15">
-        <v>0.1799501301655937</v>
+        <v>0.1805583029490521</v>
       </c>
       <c r="I15">
-        <v>0.002095054807974783</v>
+        <v>0.002945660133995887</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6255589220108249</v>
+        <v>0.4148432628941379</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1766041007499517</v>
       </c>
       <c r="M15">
-        <v>2.142086510763278</v>
+        <v>0.1454337172757825</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.945038946043923</v>
       </c>
       <c r="P15">
-        <v>0.8771334483581086</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7316673986143276</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.627211092119637</v>
+        <v>1.449087150354501</v>
       </c>
       <c r="C16">
-        <v>0.4307268965008291</v>
+        <v>0.4636638622881151</v>
       </c>
       <c r="D16">
-        <v>0.06751473042894673</v>
+        <v>0.07722419992933993</v>
       </c>
       <c r="E16">
-        <v>0.120597243270975</v>
+        <v>0.1234537916355585</v>
       </c>
       <c r="F16">
-        <v>1.185723107088378</v>
+        <v>0.928094139954311</v>
       </c>
       <c r="G16">
-        <v>0.0008073308258260361</v>
+        <v>0.01151388058251612</v>
       </c>
       <c r="H16">
-        <v>0.1657290726593885</v>
+        <v>0.1665083905324849</v>
       </c>
       <c r="I16">
-        <v>0.001741228890169921</v>
+        <v>0.002601461305120623</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6127571996719468</v>
+        <v>0.441311905455656</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1898849010667725</v>
       </c>
       <c r="M16">
-        <v>2.006699031622759</v>
+        <v>0.1506445323089061</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.886193667383822</v>
       </c>
       <c r="P16">
-        <v>0.9011752743979606</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7657036662593537</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.587590716485153</v>
+        <v>1.424091699786288</v>
       </c>
       <c r="C17">
-        <v>0.4318379482230625</v>
+        <v>0.4795175186400229</v>
       </c>
       <c r="D17">
-        <v>0.06362840711177853</v>
+        <v>0.06952964210460522</v>
       </c>
       <c r="E17">
-        <v>0.199758566466528</v>
+        <v>0.2036574497713559</v>
       </c>
       <c r="F17">
-        <v>1.217714067066467</v>
+        <v>0.9850926444075725</v>
       </c>
       <c r="G17">
-        <v>0.0008086829892694052</v>
+        <v>0.00585490714229131</v>
       </c>
       <c r="H17">
-        <v>0.1273920572497218</v>
+        <v>0.1282392207486538</v>
       </c>
       <c r="I17">
-        <v>0.001682691744384179</v>
+        <v>0.002490761916298823</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6377925932517812</v>
+        <v>0.4752009091654941</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2047085291237529</v>
       </c>
       <c r="M17">
-        <v>1.973033562496056</v>
+        <v>0.1605965185053684</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.882148591949544</v>
       </c>
       <c r="P17">
-        <v>0.941987248380471</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7988664426933276</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.607353972852735</v>
+        <v>1.43929670823772</v>
       </c>
       <c r="C18">
-        <v>0.4587216248665698</v>
+        <v>0.5176903888729214</v>
       </c>
       <c r="D18">
-        <v>0.05824426642633895</v>
+        <v>0.06159517831353867</v>
       </c>
       <c r="E18">
-        <v>0.4213916975661718</v>
+        <v>0.4269176916146691</v>
       </c>
       <c r="F18">
-        <v>1.328090421982296</v>
+        <v>1.088235379899473</v>
       </c>
       <c r="G18">
-        <v>0.0008088283061632381</v>
+        <v>0.004404898549250191</v>
       </c>
       <c r="H18">
-        <v>0.07492607785116689</v>
+        <v>0.0758448509885099</v>
       </c>
       <c r="I18">
-        <v>0.001456555085479039</v>
+        <v>0.002222432268506935</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7031434355585731</v>
+        <v>0.5299426681079638</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.226326519266923</v>
       </c>
       <c r="M18">
-        <v>2.024773634111682</v>
+        <v>0.1798497975456179</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.940514579120219</v>
       </c>
       <c r="P18">
-        <v>1.010915127569653</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.844107658416295</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.667388425941624</v>
+        <v>1.482755873016231</v>
       </c>
       <c r="C19">
-        <v>0.5084977315797232</v>
+        <v>0.5781216970036667</v>
       </c>
       <c r="D19">
-        <v>0.05349431602941834</v>
+        <v>0.05480624359794106</v>
       </c>
       <c r="E19">
-        <v>0.8381240223026509</v>
+        <v>0.8455770790117896</v>
       </c>
       <c r="F19">
-        <v>1.491736150162097</v>
+        <v>1.224682228418459</v>
       </c>
       <c r="G19">
-        <v>0.0008078700529045995</v>
+        <v>0.003640415268653552</v>
       </c>
       <c r="H19">
-        <v>0.03124946474471813</v>
+        <v>0.03227272982351792</v>
       </c>
       <c r="I19">
-        <v>0.001641593172875488</v>
+        <v>0.002503438267950742</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7950564887051144</v>
+        <v>0.5988231004808426</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2522495334344157</v>
       </c>
       <c r="M19">
-        <v>2.140258180326327</v>
+        <v>0.2057671901459557</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.049230238119918</v>
       </c>
       <c r="P19">
-        <v>1.10390628267983</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.901769183171595</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.852443215202243</v>
+        <v>1.616691854628243</v>
       </c>
       <c r="C20">
-        <v>0.6177979707155714</v>
+        <v>0.6951817113995276</v>
       </c>
       <c r="D20">
-        <v>0.04981563688424728</v>
+        <v>0.04914060986673263</v>
       </c>
       <c r="E20">
-        <v>1.784953769167203</v>
+        <v>1.793151665517385</v>
       </c>
       <c r="F20">
-        <v>1.815013995897772</v>
+        <v>1.459608960859811</v>
       </c>
       <c r="G20">
-        <v>0.0008037870117584575</v>
+        <v>0.004160811362912575</v>
       </c>
       <c r="H20">
-        <v>0.01099949595939709</v>
+        <v>0.01201888497607584</v>
       </c>
       <c r="I20">
-        <v>0.002333052176719974</v>
+        <v>0.003330003148494853</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9688612408005568</v>
+        <v>0.7102109928616187</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2897748594920557</v>
       </c>
       <c r="M20">
-        <v>2.439728618917627</v>
+        <v>0.2530237175709118</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.304018317605767</v>
       </c>
       <c r="P20">
-        <v>1.267037419521898</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9852563040693738</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.102168813868502</v>
+        <v>1.756368013579674</v>
       </c>
       <c r="C21">
-        <v>0.7082933630152866</v>
+        <v>0.7158868599020991</v>
       </c>
       <c r="D21">
-        <v>0.05023854125823313</v>
+        <v>0.05605583225424482</v>
       </c>
       <c r="E21">
-        <v>2.108455754045238</v>
+        <v>2.109048689525039</v>
       </c>
       <c r="F21">
-        <v>2.013094059504041</v>
+        <v>1.426398337583151</v>
       </c>
       <c r="G21">
-        <v>0.0007979149788709841</v>
+        <v>0.06502518385460831</v>
       </c>
       <c r="H21">
-        <v>0.01673536785625873</v>
+        <v>0.01681472961938035</v>
       </c>
       <c r="I21">
-        <v>0.004255383401757129</v>
+        <v>0.004670613220868702</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.053027680400362</v>
+        <v>0.6687646533100917</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2639402885514599</v>
       </c>
       <c r="M21">
-        <v>2.775785906437562</v>
+        <v>0.2504362672536402</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.459658504124462</v>
       </c>
       <c r="P21">
-        <v>1.279577425934718</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8838195046006732</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.265181836721922</v>
+        <v>1.842385543951167</v>
       </c>
       <c r="C22">
-        <v>0.7623653739235579</v>
+        <v>0.718934541961346</v>
       </c>
       <c r="D22">
-        <v>0.05055802980476365</v>
+        <v>0.06211991121945459</v>
       </c>
       <c r="E22">
-        <v>2.271127958242744</v>
+        <v>2.265962949692749</v>
       </c>
       <c r="F22">
-        <v>2.136509243770064</v>
+        <v>1.389993020798585</v>
       </c>
       <c r="G22">
-        <v>0.0007942327074377243</v>
+        <v>0.153932570541869</v>
       </c>
       <c r="H22">
-        <v>0.02076029950996228</v>
+        <v>0.02003996731762658</v>
       </c>
       <c r="I22">
-        <v>0.005781386514333242</v>
+        <v>0.005386446348199847</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.105343110116749</v>
+        <v>0.6358449334785732</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2459189685495033</v>
       </c>
       <c r="M22">
-        <v>2.989226726927143</v>
+        <v>0.2459406987771118</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.54415901693838</v>
       </c>
       <c r="P22">
-        <v>1.284205017877582</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8180432752489963</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.182609626007888</v>
+        <v>1.808033910278027</v>
       </c>
       <c r="C23">
-        <v>0.7317244230964661</v>
+        <v>0.7244889577261517</v>
       </c>
       <c r="D23">
-        <v>0.05038154318575216</v>
+        <v>0.0579141706223254</v>
       </c>
       <c r="E23">
-        <v>2.184255481683081</v>
+        <v>2.182536496088147</v>
       </c>
       <c r="F23">
-        <v>2.076203261093625</v>
+        <v>1.433768282827245</v>
       </c>
       <c r="G23">
-        <v>0.0007961649520420459</v>
+        <v>0.08812164606003847</v>
       </c>
       <c r="H23">
-        <v>0.01857932645312244</v>
+        <v>0.01834453535523783</v>
       </c>
       <c r="I23">
-        <v>0.004643059684658724</v>
+        <v>0.004687860744646777</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.081673696904886</v>
+        <v>0.6664021608705895</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2599127245929509</v>
       </c>
       <c r="M23">
-        <v>2.877379065210533</v>
+        <v>0.2537042077567051</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.518104233453755</v>
       </c>
       <c r="P23">
-        <v>1.286195730946119</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.863530550329628</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.864086678587313</v>
+        <v>1.626263863884105</v>
       </c>
       <c r="C24">
-        <v>0.6204532011730635</v>
+        <v>0.6994495580158002</v>
       </c>
       <c r="D24">
-        <v>0.04964093201345321</v>
+        <v>0.04849245595598006</v>
       </c>
       <c r="E24">
-        <v>1.85840902361312</v>
+        <v>1.866727920941102</v>
       </c>
       <c r="F24">
-        <v>1.84207494664696</v>
+        <v>1.483305943001042</v>
       </c>
       <c r="G24">
-        <v>0.0008036389263588844</v>
+        <v>0.003919496228074415</v>
       </c>
       <c r="H24">
-        <v>0.01129864083324672</v>
+        <v>0.01232532893103311</v>
       </c>
       <c r="I24">
-        <v>0.001896596274697515</v>
+        <v>0.002802757850910886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9863152721044699</v>
+        <v>0.7241216537690036</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2950276820137674</v>
       </c>
       <c r="M24">
-        <v>2.45363820513785</v>
+        <v>0.2582367830071917</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.317832063201138</v>
       </c>
       <c r="P24">
-        <v>1.287623509157498</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9995481053079871</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.523140744532526</v>
+        <v>1.344405274299305</v>
       </c>
       <c r="C25">
-        <v>0.5039375553684806</v>
+        <v>0.5733911141485066</v>
       </c>
       <c r="D25">
-        <v>0.04865933497119901</v>
+        <v>0.04467791941544519</v>
       </c>
       <c r="E25">
-        <v>1.512679624920253</v>
+        <v>1.525453943977681</v>
       </c>
       <c r="F25">
-        <v>1.596127412734106</v>
+        <v>1.308341715974322</v>
       </c>
       <c r="G25">
-        <v>0.000811960186185378</v>
+        <v>0.006214621970542566</v>
       </c>
       <c r="H25">
-        <v>0.005305023715449941</v>
+        <v>0.006621202143973881</v>
       </c>
       <c r="I25">
-        <v>0.001103881867909884</v>
+        <v>0.001463431236468082</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8859014680187371</v>
+        <v>0.6693786764164642</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2918755752374693</v>
       </c>
       <c r="M25">
-        <v>2.002581039170735</v>
+        <v>0.2180220883074568</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.911885414907061</v>
       </c>
       <c r="P25">
-        <v>1.291526188114915</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.036784054862935</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
